--- a/subject/subject.xlsx
+++ b/subject/subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\sibot\code\subject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D66CA-7F8D-4BDF-ADC6-B5EBBB7257BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419A38D-BE1F-40BE-9282-0C406F5A6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65A4A2C4-069C-46E4-9059-1402CC39FFB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65A4A2C4-069C-46E4-9059-1402CC39FFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Masa Transisi 1966-1967</t>
   </si>
@@ -91,30 +91,6 @@
     <t>Kebijakan Pembangunan Orde Baru</t>
   </si>
   <si>
-    <t xml:space="preserve">a. Bidang Pertanian </t>
-  </si>
-  <si>
-    <t>Sepanjang 1970-an hingga 1980-an dilakukan investasi besar-besaran untuk infrastruktur Pembangunan Lima Tahun (Pelita), swasembada pangan merupakan fokus tersendiri dalam rencana pembangunan yang dibuat oleh Soeharto.</t>
-  </si>
-  <si>
-    <t>b. Bidang Pendidikan</t>
-  </si>
-  <si>
-    <t>Pada masa kepemimpinan Soeharto pembangunan pendidikan mengalami kemajuan yang sangat penting. Ada tiga hal yang patut dicatat dalam bidang pendidikan masa Orde Baru adalah pembangunan Sekolah Dasar Inpres (SD Inpres), program wajib belajar dan pembentukan kelompok belajar atau kejar.</t>
-  </si>
-  <si>
-    <t>c. Keluarga Berencana (KB)</t>
-  </si>
-  <si>
-    <t>Pada masa Orde Baru dilaksanakan program untuk pengendalian pertumbuhan penduduk yang dikenal dengan Keluarga Berencana (KB). Pada tahun 1967 pertumbuhan penduduk Indonesia mencapai 2,6% dan pada tahun 1996 telah menurun drastis menjadi 1,6%.</t>
-  </si>
-  <si>
-    <t>d. Kesehatan Masyarakat, Posyandu</t>
-  </si>
-  <si>
-    <t>Perkembangan Pusat Kesehatan Masyarakat (Puskesmas) bermula dari konsep Bandung Plan diperkenalkan oleh dr. Y. Leimena dan dr. Patah pada tahun 1951. Bandung Plan merupakan suatu konsep pelayanan yang menggabungkan antara pelayanan kuratif dan preventif.</t>
-  </si>
-  <si>
     <t>Integrasi Timor-Timur</t>
   </si>
   <si>
@@ -142,15 +118,6 @@
     <t>Tokoh-tokoh penting Masa Orde Baru</t>
   </si>
   <si>
-    <t>https://docs.google.com/presentation/d/1A7BtI_tnE8-sWuLK6z1NbxWmQBN1grM6/edit?usp=share_link&amp;ouid=106743736774665270228&amp;rtpof=true&amp;sd=true</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1czaTR7vS_QHDELcsiGv9054h68K94zBD/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>Berikut merupakan rangkuman materi tentang Integrasi Timor Timur</t>
-  </si>
-  <si>
     <t>Judul Materi</t>
   </si>
   <si>
@@ -160,7 +127,43 @@
     <t>Soal</t>
   </si>
   <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSeVGMuufsItSwQYD2WOdsMLzMwnhuFFBVZXcKqYTXeAx0vy6Q/viewform</t>
+    <t>Memahami pengetahuan faktual, konseptual, prosedural berdasarkan rasa ingin tahunya tentang ilmu pengetahuan, teknologi, seni, budaya, dan humaniora dengan wawasan kemanusiaan, kebangsaan, kenegaraan, dan peradaban terkait penyebab fenomena dan kejadian, serta menerapkan pengetahuan prosedural pada bidang kajian yang spesifik sesuai dengan bakat dan minatnya untuk memecahkan masalah.</t>
+  </si>
+  <si>
+    <t>Kompetensi Inti</t>
+  </si>
+  <si>
+    <t>Kompetensi Dasar</t>
+  </si>
+  <si>
+    <t>Menjelaskan Perkembangan Kehidupan Politik dan Ekonomi Bangsa Indonesia Pada Masa Orde Baru</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSfO3p-R7wqqjH0ynbi_bGF-7H2SpWDFwEanFtJGX-7gmmjQvA/viewform?usp=sf_link</t>
+  </si>
+  <si>
+    <t>a. Bidang Pertanian 
+Sepanjang 1970-an hingga 1980-an dilakukan investasi besar-besaran untuk infrastruktur Pembangunan Lima Tahun (Pelita), swasembada pangan merupakan fokus tersendiri dalam rencana pembangunan yang dibuat oleh Soeharto.</t>
+  </si>
+  <si>
+    <t>b. Bidang Pendidikan
+Pada masa kepemimpinan Soeharto pembangunan pendidikan mengalami kemajuan yang sangat penting. Ada tiga hal yang patut dicatat dalam bidang pendidikan masa Orde Baru adalah pembangunan Sekolah Dasar Inpres (SD Inpres), program wajib belajar dan pembentukan kelompok belajar atau kejar.</t>
+  </si>
+  <si>
+    <t>c. Keluarga Berencana (KB)
+Pada masa Orde Baru dilaksanakan program untuk pengendalian pertumbuhan penduduk yang dikenal dengan Keluarga Berencana (KB). Pada tahun 1967 pertumbuhan penduduk Indonesia mencapai 2,6% dan pada tahun 1996 telah menurun drastis menjadi 1,6%.</t>
+  </si>
+  <si>
+    <t>d. Kesehatan Masyarakat, Posyandu
+Perkembangan Pusat Kesehatan Masyarakat (Puskesmas) bermula dari konsep Bandung Plan diperkenalkan oleh dr. Y. Leimena dan dr. Patah pada tahun 1951. Bandung Plan merupakan suatu konsep pelayanan yang menggabungkan antara pelayanan kuratif dan preventif.</t>
+  </si>
+  <si>
+    <t>Berikut merupakan rangkuman materi tentang Integrasi Timor Timur
+https://docs.google.com/presentation/d/1A7BtI_tnE8-sWuLK6z1NbxWmQBN1grM6/edit?usp=share_link&amp;ouid=106743736774665270228&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>Tokoh-tokoh penting Masa Orde Baru
+https://drive.google.com/file/d/1czaTR7vS_QHDELcsiGv9054h68K94zBD/view?usp=share_link</t>
   </si>
 </sst>
 </file>
@@ -235,37 +238,41 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1BCB3-046C-48DD-A6E4-111BD9F48EDE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,24 +602,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F46EE0BC-84F5-48EC-AB2B-2B516C55BCC7}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F492A4EF-9000-40F6-B6BD-AA25F96ADA8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,271 +646,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21974AB-226C-44EE-BDC3-923FB6F67582}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="62.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="4" t="s">
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="4" t="s">
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="4" t="s">
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>36</v>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A24"/>
+    <mergeCell ref="A7:A20"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B1:B6"/>
@@ -893,25 +901,9 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="B7:B24"/>
     <mergeCell ref="A1:A6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{F133F7E3-2F8C-4E01-9125-6C3C8D840982}"/>
-    <hyperlink ref="D26" r:id="rId2" xr:uid="{E16788E8-5B73-4E9D-93B5-1853B2A95E8A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/subject/subject.xlsx
+++ b/subject/subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\sibot\code\subject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419A38D-BE1F-40BE-9282-0C406F5A6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC5F969-514E-4CF5-81BF-DC214FFB35F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65A4A2C4-069C-46E4-9059-1402CC39FFB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Masa Transisi 1966-1967</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Pendekatan keamanan yang diterapkan oleh pemerintah Orde Baru dalam menegakkan stabilisasi nasional secara umum memang berhasilmenciptakan suasana aman bagi masyarakat Indonesia. Pembangunan ekonomi pun berjalan baik dengan pertumbuhan ekonomi yang tinggi karena setiap program pembangunan pemerintah terencana dengan baik dan hasilnya dapat terlihat secara konkret.</t>
-  </si>
-  <si>
-    <t>Tokoh-tokoh penting Masa Orde Baru</t>
   </si>
   <si>
     <t>Judul Materi</t>
@@ -164,6 +161,24 @@
   <si>
     <t>Tokoh-tokoh penting Masa Orde Baru
 https://drive.google.com/file/d/1czaTR7vS_QHDELcsiGv9054h68K94zBD/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>1. Membandingkan informasi dari berbagai sumber belajar tentang perkembangan kehidupan politik dan ekonomi Bangsa Indonesia pada masa Orde Baru.
+2. Menyimpulkan hasil identifikasi tentang perkembangan kehidupan politik dan ekonomi Bangsa Indonesia pada masa Orde Baru.
+3. Menjelaskan perkembangan kehidupan politik dan ekonomi Bangsa Indonesia pada masa Orde Baru.
+4. Mengemukakan tokoh-tokoh penting pada masa Orde Baru.</t>
+  </si>
+  <si>
+    <t>Tujuan Pembelajaran</t>
+  </si>
+  <si>
+    <t>1. Peserta didik diharapkan dapat membandingkan informasi dari berbagai sumber belajar tentang perkembangan kehidupan politik dan ekonomi Bangsa Indonesia pada masa Orde Baru.
+2. Peserta didik diharapkan dapat menyimpulkan hasil identifikasi tentang perkembangan kehidupan politik dan ekonomi Bangsa Indonesia pada masa Orde Baru.
+3. Peserta didik diharapkan dapat menjelaskan perkembangan kehidupan politik dan ekonomi Bangsa Indonesia pada masa Orde Baru.
+4. Peserta didik diharapkan dapat mengemukakan tokoh-tokoh penting pada masa Orde Baru.</t>
   </si>
 </sst>
 </file>
@@ -247,31 +262,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1BCB3-046C-48DD-A6E4-111BD9F48EDE}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,43 +617,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{F492A4EF-9000-40F6-B6BD-AA25F96ADA8E}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{F492A4EF-9000-40F6-B6BD-AA25F96ADA8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -648,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21974AB-226C-44EE-BDC3-923FB6F67582}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,221 +691,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2" t="s">
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13" t="s">
+    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A6"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B21:B22"/>
@@ -889,19 +933,6 @@
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
